--- a/FA30_Script_RunMassAdditions_21C.xlsx
+++ b/FA30_Script_RunMassAdditions_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup_IGA_Master\UIAF_Selenium_IGA\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488AD652-C525-4A7B-9E03-E2A203741D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F3EC7F-63F4-4022-ABDB-89E63DD8F60E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RunMassAdditions" sheetId="30" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RunMassAdditions!$A$1:$Q$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RunMassAdditions!$A$1:$Q$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="177">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -65,28 +64,10 @@
     <t>EXPECTED</t>
   </si>
   <si>
-    <t>Step 1</t>
-  </si>
-  <si>
-    <t>Step 2</t>
-  </si>
-  <si>
-    <t>Step 4</t>
-  </si>
-  <si>
-    <t>Step 5</t>
-  </si>
-  <si>
-    <t>Step 6</t>
-  </si>
-  <si>
     <t>SELECTOBJECTTYPE</t>
   </si>
   <si>
     <t>OBJECTTYPE</t>
-  </si>
-  <si>
-    <t>Browser</t>
   </si>
   <si>
     <t>STEP NO</t>
@@ -119,12 +100,6 @@
     <t>Element</t>
   </si>
   <si>
-    <t>Login Page</t>
-  </si>
-  <si>
-    <t>Step 3</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -140,19 +115,7 @@
     <t>Input</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>SetText</t>
-  </si>
-  <si>
-    <t>LaunchApplication</t>
-  </si>
-  <si>
-    <t>Step 7</t>
   </si>
   <si>
     <t>ExplicitWaitType</t>
@@ -185,16 +148,7 @@
     <t>userid</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>pt1:_UIShome::icon</t>
-  </si>
-  <si>
     <t>XPath</t>
-  </si>
-  <si>
-    <t>//a[@title='Navigator']</t>
   </si>
   <si>
     <t>//div[@title='Tasks']</t>
@@ -243,9 +197,6 @@
   </si>
   <si>
     <t>ConfirmBtn</t>
-  </si>
-  <si>
-    <t>CloseBrowser</t>
   </si>
   <si>
     <t>//div[@class='xk9']</t>
@@ -362,9 +313,6 @@
     <t>Succeeded</t>
   </si>
   <si>
-    <t>//a[text()='Scheduled Processes']</t>
-  </si>
-  <si>
     <t>//a/span[text()='Schedule New Process']</t>
   </si>
   <si>
@@ -384,9 +332,6 @@
   </si>
   <si>
     <t>//a[text()='More...']</t>
-  </si>
-  <si>
-    <t>URL</t>
   </si>
   <si>
     <t>SignInLink</t>
@@ -437,9 +382,6 @@
     <t>//button[@id='btnActive']</t>
   </si>
   <si>
-    <t>Step 8</t>
-  </si>
-  <si>
     <t>Payables</t>
   </si>
   <si>
@@ -449,31 +391,13 @@
     <t>Step 9</t>
   </si>
   <si>
-    <t>Billing Page</t>
-  </si>
-  <si>
-    <t>Step 44</t>
-  </si>
-  <si>
-    <t>Step 45</t>
-  </si>
-  <si>
     <t>Navigator Page</t>
-  </si>
-  <si>
-    <t>Step 46</t>
   </si>
   <si>
     <t>Tools</t>
   </si>
   <si>
     <t>Scheduled Processes Page</t>
-  </si>
-  <si>
-    <t>Step 47</t>
-  </si>
-  <si>
-    <t>Step 50</t>
   </si>
   <si>
     <t>Search</t>
@@ -497,22 +421,13 @@
     <t>The Element: Refresh is clicked</t>
   </si>
   <si>
-    <t>//*[@id="itemNode_payables_payables_invoices_1"]</t>
-  </si>
-  <si>
     <t>//*[contains(@id,"srRssdfl:value00::content")]</t>
-  </si>
-  <si>
-    <t>//*[contains(@id,'srRssdfl::_afrDscl')]</t>
   </si>
   <si>
     <t>//*[contains(@id,'srRssdfl::search')]</t>
   </si>
   <si>
     <t>//*[contains(@id,'j_id__ctru160pc4')]</t>
-  </si>
-  <si>
-    <t>//*[text()='Payables']</t>
   </si>
   <si>
     <t>Step 14</t>
@@ -542,30 +457,6 @@
     <t>Step 38</t>
   </si>
   <si>
-    <t>Step 39</t>
-  </si>
-  <si>
-    <t>Step 40</t>
-  </si>
-  <si>
-    <t>Step 41</t>
-  </si>
-  <si>
-    <t>Step 42</t>
-  </si>
-  <si>
-    <t>Step 43</t>
-  </si>
-  <si>
-    <t>Step 48</t>
-  </si>
-  <si>
-    <t>Step 49</t>
-  </si>
-  <si>
-    <t>//*[text()='Tools']</t>
-  </si>
-  <si>
     <t>GetNumbersOfTextElement</t>
   </si>
   <si>
@@ -579,9 +470,6 @@
   </si>
   <si>
     <t>Output</t>
-  </si>
-  <si>
-    <t>//input[contains(@id,'value10')]</t>
   </si>
   <si>
     <t>CHANGE HISTORY</t>
@@ -609,6 +497,75 @@
   </si>
   <si>
     <t>Common</t>
+  </si>
+  <si>
+    <t>//div[@title='Payables']</t>
+  </si>
+  <si>
+    <t>//a[@title='Invoices']</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'pt1:_UIShome::icon')]</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Explicit Wait for Navigator</t>
+  </si>
+  <si>
+    <t>Explicit Waited for Navigator</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Click on Navigator</t>
+  </si>
+  <si>
+    <t>Clicked on Navigator</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'pt1:_UISmmLink::icon')]</t>
+  </si>
+  <si>
+    <t>//div[@title='Tools']</t>
+  </si>
+  <si>
+    <t>//span[text()='Scheduled Processes']</t>
+  </si>
+  <si>
+    <t>//*[@id="_FOpt1:_FOr1:0:_FONSr2:0:_FOTsr1:0:pt1:srRssdfl::_afrDscl"]</t>
+  </si>
+  <si>
+    <t>//*[@id="_FOpt1:_FOr1:0:_FONSr2:0:_FOTsr1:0:pt1:srRssdfl:value10::content"]</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1194,19 +1151,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -9086,7 +9030,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9101,6 +9044,9 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7835">
@@ -16940,167 +16886,7 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000931E0000}"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18025,31 +17811,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q203"/>
+  <dimension ref="A1:Q191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B28" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.81640625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.1796875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.81640625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.26953125" style="11" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.7265625" style="11" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.7265625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.90625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7265625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.26953125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.26953125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.26953125" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.81640625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.1796875" style="11" collapsed="1"/>
+    <col min="1" max="1" width="17.77734375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.77734375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.21875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.77734375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.21875" style="11" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.77734375" style="11" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.77734375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.88671875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.77734375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.21875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.21875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.77734375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.21875" style="11" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" ht="13">
+    <row r="1" spans="1:14" s="13" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -18057,7 +17843,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>4</v>
@@ -18066,2065 +17852,2171 @@
         <v>8</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="B2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="11" t="str">
+        <f t="shared" ref="D2:D39" si="0">_xlfn.CONCAT(G2," ",H2)</f>
+        <v>ExplicitWaitType Payables</v>
+      </c>
+      <c r="E2" s="11" t="str">
+        <f t="shared" ref="E2:E39" si="1">_xlfn.CONCAT("Performed"," ",G2," ",H2)</f>
+        <v>Performed ExplicitWaitType Payables</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="11" t="str">
-        <f>_xlfn.CONCAT(G2," ",H2)</f>
-        <v xml:space="preserve">LaunchApplication </v>
-      </c>
-      <c r="E2" s="11" t="str">
-        <f>_xlfn.CONCAT("Performed"," ",G2," ",H2)</f>
-        <v xml:space="preserve">Performed LaunchApplication </v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="H2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="N2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:14">
+      <c r="A3" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="B3" s="11" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="D3" s="11" t="str">
-        <f t="shared" ref="D3:D51" si="0">_xlfn.CONCAT(G3," ",H3)</f>
-        <v>ExplicitWaitType username</v>
+        <f t="shared" si="0"/>
+        <v>ClickElement Payables</v>
       </c>
       <c r="E3" s="11" t="str">
-        <f t="shared" ref="E3:E51" si="1">_xlfn.CONCAT("Performed"," ",G3," ",H3)</f>
-        <v>Performed ExplicitWaitType username</v>
+        <f t="shared" si="1"/>
+        <v>Performed ClickElement Payables</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>183</v>
+        <v>19</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:14">
+      <c r="A4" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="B4" s="11" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement username</v>
+        <v>ExplicitWaitType Invoices</v>
       </c>
       <c r="E4" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement username</v>
+        <v>Performed ExplicitWaitType Invoices</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>25</v>
+      <c r="J4" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:14">
+      <c r="A5" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="B5" s="11" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="D5" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>SetText username</v>
+        <v>ClickElement Invoices</v>
       </c>
       <c r="E5" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText username</v>
+        <v>Performed ClickElement Invoices</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:14">
+      <c r="A6" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>SetText password</v>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText password</v>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:14">
+      <c r="A7" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="B7" s="11" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement signin</v>
+        <v>ExplicitWaitType Tasks</v>
       </c>
       <c r="E7" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement signin</v>
+        <v>Performed ExplicitWaitType Tasks</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>25</v>
+      <c r="J7" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:14">
+      <c r="A8" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="B8" s="11" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType Home</v>
+        <v>ClickElement Tasks</v>
       </c>
       <c r="E8" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Home</v>
+        <v>Performed ClickElement Tasks</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>183</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="N8" s="14"/>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:14" ht="12" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="B9" s="11" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Home</v>
+        <v>ExplicitWaitType TasksPanelDiv</v>
       </c>
       <c r="E9" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Home</v>
+        <v>Performed ExplicitWaitType TasksPanelDiv</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="K9" s="11"/>
-      <c r="N9" s="14"/>
-    </row>
-    <row r="10" spans="1:14" ht="12" customHeight="1">
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="B10" s="11" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType Payables</v>
+        <v>ExplicitWaitType CreateMassAdditions</v>
       </c>
       <c r="E10" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Payables</v>
+        <v>Performed ExplicitWaitType CreateMassAdditions</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K10" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
+      <c r="A11" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="B11" s="11" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Payables</v>
+        <v>ClickElement CreateMassAdditions</v>
       </c>
       <c r="E11" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Payables</v>
+        <v>Performed ClickElement CreateMassAdditions</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="11"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
+      <c r="A12" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="B12" s="11" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType Invoices</v>
+        <v>ExplicitWaitType AccountingDate</v>
       </c>
       <c r="E12" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Invoices</v>
+        <v>Performed ExplicitWaitType AccountingDate</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K12" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
+      <c r="A13" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="B13" s="11" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Invoices</v>
+        <v>SetText AccountingDate</v>
       </c>
       <c r="E13" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Invoices</v>
+        <v>Performed SetText AccountingDate</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="H13" s="11" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="11"/>
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <v>SelectItemByVisibleText AssetBook</v>
       </c>
       <c r="E14" s="11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>Performed SelectItemByVisibleText AssetBook</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>189</v>
+        <v>80</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="K14" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="D15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType Tasks</v>
+        <v>ClickElement SubmitBtn</v>
       </c>
       <c r="E15" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Tasks</v>
+        <v>Performed ClickElement SubmitBtn</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K15" s="11"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D16" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Tasks</v>
+        <v>GetNumbersOfTextElement ProcessIDAct</v>
       </c>
       <c r="E16" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Tasks</v>
+        <v>Performed GetNumbersOfTextElement ProcessIDAct</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" ht="12" customHeight="1">
+        <v>141</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D17" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType TasksPanelDiv</v>
+        <v>ExplicitWaitType OKBtn</v>
       </c>
       <c r="E17" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType TasksPanelDiv</v>
+        <v>Performed ExplicitWaitType OKBtn</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K17" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType CreateMassAdditions</v>
+        <v>ClickElement OKBtn</v>
       </c>
       <c r="E18" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType CreateMassAdditions</v>
+        <v>Performed ClickElement OKBtn</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="18" customFormat="1">
       <c r="A19" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement CreateMassAdditions</v>
+        <v>ExplicitWaitType Home</v>
       </c>
       <c r="E19" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement CreateMassAdditions</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="11" t="s">
+        <v>Performed ExplicitWaitType Home</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="I19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" s="15" customFormat="1">
       <c r="A20" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D20" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType AccountingDate</v>
+        <v>ClickElement Home</v>
       </c>
       <c r="E20" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType AccountingDate</v>
+        <v>Performed ClickElement Home</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>93</v>
+        <v>18</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="I20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" s="15" customFormat="1">
+      <c r="A21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23">
+        <v>2</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="15" customFormat="1">
+      <c r="A22" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText AccountingDate</v>
-      </c>
-      <c r="E21" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText AccountingDate</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="11" t="s">
+      <c r="I22" s="23"/>
+      <c r="J22" s="23">
+        <v>120</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="15" customFormat="1">
+      <c r="A23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>SelectItemByVisibleText AssetBook</v>
-      </c>
-      <c r="E22" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SelectItemByVisibleText AssetBook</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement SubmitBtn</v>
-      </c>
-      <c r="E23" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement SubmitBtn</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="15" customFormat="1">
       <c r="A24" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>GetNumbersOfTextElement ProcessIDAct</v>
-      </c>
-      <c r="E24" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed GetNumbersOfTextElement ProcessIDAct</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>152</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23">
+        <v>5</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="15" customFormat="1">
       <c r="A25" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType OKBtn</v>
+        <v>ExplicitWaitType Tools</v>
       </c>
       <c r="E25" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType OKBtn</v>
+        <v>Performed ExplicitWaitType Tools</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" s="15" customFormat="1">
       <c r="A26" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement OKBtn</v>
+        <v>ClickElement Tools</v>
       </c>
       <c r="E26" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement OKBtn</v>
+        <v>Performed ClickElement Tools</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="19" customFormat="1">
+        <v>119</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:13" s="15" customFormat="1">
       <c r="A27" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>137</v>
+        <v>73</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D27" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType Home</v>
+        <v>ExplicitWaitType ScheduledProcessesLink</v>
       </c>
       <c r="E27" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Home</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>32</v>
+        <v>Performed ExplicitWaitType ScheduledProcessesLink</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" s="16" customFormat="1">
+        <v>25</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" s="15" customFormat="1">
       <c r="A28" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D28" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Home</v>
+        <v>ClickElement ScheduledProcessesLink</v>
       </c>
       <c r="E28" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Home</v>
+        <v>Performed ClickElement ScheduledProcessesLink</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" s="16" customFormat="1">
+    <row r="29" spans="1:13" s="15" customFormat="1">
       <c r="A29" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D29" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType Tools</v>
+        <v>ExplicitWaitType ScheduleNewProcess</v>
       </c>
       <c r="E29" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Tools</v>
+        <v>Performed ExplicitWaitType ScheduleNewProcess</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>183</v>
+        <v>25</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" s="16" customFormat="1">
+    <row r="30" spans="1:13" s="15" customFormat="1">
       <c r="A30" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D30" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Tools</v>
+        <v>ExplicitWaitType Search</v>
       </c>
       <c r="E30" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Tools</v>
+        <v>Performed ExplicitWaitType Search</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="11"/>
+      <c r="J30" s="16" t="s">
+        <v>147</v>
+      </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" s="16" customFormat="1">
+    <row r="31" spans="1:13" s="15" customFormat="1">
       <c r="A31" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D31" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType ScheduledProcessesLink</v>
+        <v>ClickElement Search</v>
       </c>
       <c r="E31" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType ScheduledProcessesLink</v>
+        <v>Performed ClickElement Search</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>185</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="20"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" s="16" customFormat="1">
-      <c r="A32" s="11" t="s">
-        <v>89</v>
-      </c>
+    <row r="32" spans="1:13" s="15" customFormat="1">
+      <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D32" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement ScheduledProcessesLink</v>
+        <v>ClickElement ProcessIDtxtAct</v>
       </c>
       <c r="E32" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement ScheduledProcessesLink</v>
+        <v>Performed ClickElement ProcessIDtxtAct</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:17" s="16" customFormat="1">
+    <row r="33" spans="1:17" s="15" customFormat="1">
       <c r="A33" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="D33" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType ScheduleNewProcess</v>
+        <v>SetText ProcessIDtxtAct</v>
       </c>
       <c r="E33" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType ScheduleNewProcess</v>
+        <v>Performed SetText ProcessIDtxtAct</v>
       </c>
       <c r="F33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="H33" s="11" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="K33" s="11"/>
+        <v>144</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K33" s="4"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:17" s="16" customFormat="1">
+    <row r="34" spans="1:17" s="15" customFormat="1">
       <c r="A34" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D34" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType Search</v>
+        <v>ExplicitWaitType SearchBtn</v>
       </c>
       <c r="E34" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Search</v>
+        <v>Performed ExplicitWaitType SearchBtn</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>184</v>
+        <v>25</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:17" s="16" customFormat="1">
+      <c r="O34" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q34" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="15" customFormat="1">
       <c r="A35" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="D35" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Search</v>
+        <v>ClickElement SearchBtn</v>
       </c>
       <c r="E35" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Search</v>
+        <v>Performed ClickElement SearchBtn</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="I35" s="11"/>
-      <c r="J35" s="21"/>
+      <c r="J35" s="20"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
-    </row>
-    <row r="36" spans="1:17" s="16" customFormat="1">
-      <c r="A36" s="11"/>
+      <c r="O35" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="B36" s="11" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="D36" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement ProcessIDtxtAct</v>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E36" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement ProcessIDtxtAct</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>26</v>
+        <v xml:space="preserve">Performed WaitForDuration </v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>179</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="H36" s="15"/>
       <c r="I36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-    </row>
-    <row r="37" spans="1:17" s="16" customFormat="1">
+      <c r="J36" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="D37" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>SetText ProcessIDtxtAct</v>
+        <v>ExplicitWaitType Refresh</v>
       </c>
       <c r="E37" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText ProcessIDtxtAct</v>
+        <v>Performed ExplicitWaitType Refresh</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-    </row>
-    <row r="38" spans="1:17" s="16" customFormat="1">
+        <v>25</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D38" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType SearchBtn</v>
+        <v>ClickElement Refresh</v>
       </c>
       <c r="E38" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType SearchBtn</v>
+        <v>Performed ClickElement Refresh</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="O38" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P38" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q38" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="16" customFormat="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D39" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement SearchBtn</v>
+        <v>VerifyText CheckStatus</v>
       </c>
       <c r="E39" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement SearchBtn</v>
+        <v>Performed VerifyText CheckStatus</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="O39" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P39" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q39" s="16" t="s">
-        <v>152</v>
+        <v>90</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E40" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType Refresh</v>
-      </c>
-      <c r="E41" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Refresh</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>184</v>
-      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement Refresh</v>
-      </c>
-      <c r="E42" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement Refresh</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>104</v>
-      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D43" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>VerifyText CheckStatus</v>
-      </c>
-      <c r="E43" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed VerifyText CheckStatus</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>107</v>
-      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="B44" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType UsernameClick</v>
-      </c>
-      <c r="E44" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType UsernameClick</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>184</v>
-      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="B45" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement UsernameClick</v>
-      </c>
-      <c r="E45" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement UsernameClick</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="B46" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType SignOut</v>
-      </c>
-      <c r="E46" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType SignOut</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>183</v>
-      </c>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="B47" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement SignOut</v>
-      </c>
-      <c r="E47" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement SignOut</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="B48" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType LogoutConsentDiv</v>
-      </c>
-      <c r="E48" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType LogoutConsentDiv</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>183</v>
-      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType ConfirmBtn</v>
-      </c>
-      <c r="E49" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType ConfirmBtn</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J49" s="15" t="s">
-        <v>183</v>
-      </c>
+    <row r="49" spans="9:11">
+      <c r="I49" s="11"/>
+      <c r="J49" s="5"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D50" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement ConfirmBtn</v>
-      </c>
-      <c r="E50" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement ConfirmBtn</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J50" s="21" t="s">
-        <v>25</v>
-      </c>
+    <row r="50" spans="9:11">
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">CloseBrowser </v>
-      </c>
-      <c r="E51" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed CloseBrowser </v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>25</v>
-      </c>
+    <row r="51" spans="9:11">
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="9:11">
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="9:11">
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="9:11">
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="9:11">
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="9:11">
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="9:11">
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="9:11">
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="9:11">
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="9:11">
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="9:11">
       <c r="I61" s="11"/>
-      <c r="J61" s="5"/>
+      <c r="J61" s="11"/>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="9:11">
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="9:11">
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="9:11">
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" s="11" customFormat="1"/>
-    <row r="66" s="11" customFormat="1"/>
-    <row r="67" s="11" customFormat="1"/>
-    <row r="68" s="11" customFormat="1"/>
-    <row r="69" s="11" customFormat="1"/>
-    <row r="70" s="11" customFormat="1"/>
-    <row r="71" s="11" customFormat="1"/>
-    <row r="72" s="11" customFormat="1"/>
-    <row r="73" s="11" customFormat="1"/>
-    <row r="74" s="11" customFormat="1"/>
-    <row r="75" s="11" customFormat="1"/>
-    <row r="76" s="11" customFormat="1"/>
-    <row r="77" s="11" customFormat="1"/>
-    <row r="78" s="11" customFormat="1"/>
-    <row r="79" s="11" customFormat="1"/>
-    <row r="80" s="11" customFormat="1"/>
-    <row r="81" s="11" customFormat="1"/>
-    <row r="82" s="11" customFormat="1"/>
-    <row r="83" s="11" customFormat="1"/>
-    <row r="84" s="11" customFormat="1"/>
-    <row r="85" s="11" customFormat="1"/>
-    <row r="86" s="11" customFormat="1"/>
-    <row r="87" s="11" customFormat="1"/>
-    <row r="88" s="11" customFormat="1"/>
-    <row r="89" s="11" customFormat="1"/>
-    <row r="90" s="11" customFormat="1"/>
-    <row r="91" s="11" customFormat="1"/>
-    <row r="92" s="11" customFormat="1"/>
-    <row r="93" s="11" customFormat="1"/>
-    <row r="94" s="11" customFormat="1"/>
-    <row r="95" s="11" customFormat="1"/>
-    <row r="96" s="11" customFormat="1"/>
-    <row r="97" s="11" customFormat="1"/>
-    <row r="98" s="11" customFormat="1"/>
-    <row r="99" s="11" customFormat="1"/>
-    <row r="100" s="11" customFormat="1"/>
-    <row r="101" s="11" customFormat="1"/>
-    <row r="102" s="11" customFormat="1"/>
-    <row r="103" s="11" customFormat="1"/>
-    <row r="104" s="11" customFormat="1"/>
-    <row r="105" s="11" customFormat="1"/>
-    <row r="106" s="11" customFormat="1"/>
-    <row r="107" s="11" customFormat="1"/>
-    <row r="108" s="11" customFormat="1"/>
-    <row r="109" s="11" customFormat="1"/>
-    <row r="110" s="11" customFormat="1"/>
-    <row r="111" s="11" customFormat="1"/>
-    <row r="112" s="11" customFormat="1"/>
-    <row r="113" s="11" customFormat="1"/>
-    <row r="114" s="11" customFormat="1"/>
-    <row r="115" s="11" customFormat="1"/>
-    <row r="116" s="11" customFormat="1"/>
-    <row r="117" s="11" customFormat="1"/>
-    <row r="118" s="11" customFormat="1"/>
-    <row r="119" s="11" customFormat="1"/>
-    <row r="120" s="11" customFormat="1"/>
-    <row r="121" s="11" customFormat="1"/>
-    <row r="122" s="11" customFormat="1"/>
-    <row r="123" s="11" customFormat="1"/>
-    <row r="124" s="11" customFormat="1"/>
-    <row r="125" s="11" customFormat="1"/>
-    <row r="126" s="11" customFormat="1"/>
-    <row r="127" s="11" customFormat="1"/>
-    <row r="128" s="11" customFormat="1"/>
-    <row r="129" s="11" customFormat="1"/>
-    <row r="130" s="11" customFormat="1"/>
-    <row r="131" s="11" customFormat="1"/>
-    <row r="132" s="11" customFormat="1"/>
-    <row r="133" s="11" customFormat="1"/>
-    <row r="134" s="11" customFormat="1"/>
-    <row r="135" s="11" customFormat="1"/>
-    <row r="136" s="11" customFormat="1"/>
-    <row r="137" s="11" customFormat="1"/>
-    <row r="138" s="11" customFormat="1"/>
-    <row r="139" s="11" customFormat="1"/>
-    <row r="140" s="11" customFormat="1"/>
-    <row r="141" s="11" customFormat="1"/>
-    <row r="142" s="11" customFormat="1"/>
-    <row r="143" s="11" customFormat="1"/>
-    <row r="144" s="11" customFormat="1"/>
-    <row r="145" s="11" customFormat="1"/>
-    <row r="146" s="11" customFormat="1"/>
-    <row r="147" s="11" customFormat="1"/>
-    <row r="148" s="11" customFormat="1"/>
-    <row r="149" s="11" customFormat="1"/>
-    <row r="150" s="11" customFormat="1"/>
-    <row r="151" s="11" customFormat="1"/>
-    <row r="152" s="11" customFormat="1"/>
-    <row r="153" s="11" customFormat="1"/>
-    <row r="154" s="11" customFormat="1"/>
-    <row r="155" s="11" customFormat="1"/>
-    <row r="156" s="11" customFormat="1"/>
-    <row r="157" s="11" customFormat="1"/>
-    <row r="158" s="11" customFormat="1"/>
-    <row r="159" s="11" customFormat="1"/>
-    <row r="160" s="11" customFormat="1"/>
-    <row r="161" s="11" customFormat="1"/>
-    <row r="162" s="11" customFormat="1"/>
-    <row r="163" s="11" customFormat="1"/>
-    <row r="164" s="11" customFormat="1"/>
-    <row r="165" s="11" customFormat="1"/>
-    <row r="166" s="11" customFormat="1"/>
-    <row r="167" s="11" customFormat="1"/>
-    <row r="168" s="11" customFormat="1"/>
-    <row r="169" s="11" customFormat="1"/>
-    <row r="170" s="11" customFormat="1"/>
-    <row r="171" s="11" customFormat="1"/>
-    <row r="172" s="11" customFormat="1"/>
-    <row r="173" s="11" customFormat="1"/>
-    <row r="174" s="11" customFormat="1"/>
-    <row r="175" s="11" customFormat="1"/>
-    <row r="176" s="11" customFormat="1"/>
-    <row r="177" s="11" customFormat="1"/>
-    <row r="178" s="11" customFormat="1"/>
-    <row r="179" s="11" customFormat="1"/>
-    <row r="180" s="11" customFormat="1"/>
-    <row r="181" s="11" customFormat="1"/>
-    <row r="182" s="11" customFormat="1"/>
-    <row r="183" s="11" customFormat="1"/>
-    <row r="184" s="11" customFormat="1"/>
-    <row r="185" s="11" customFormat="1"/>
-    <row r="186" s="11" customFormat="1"/>
-    <row r="187" s="11" customFormat="1"/>
-    <row r="188" s="11" customFormat="1"/>
-    <row r="189" s="11" customFormat="1"/>
-    <row r="190" s="11" customFormat="1"/>
-    <row r="191" s="11" customFormat="1"/>
-    <row r="192" s="11" customFormat="1"/>
-    <row r="193" spans="2:11">
-      <c r="I193" s="11"/>
-      <c r="J193" s="11"/>
-      <c r="K193" s="11"/>
-    </row>
-    <row r="194" spans="2:11">
-      <c r="I194" s="11"/>
-      <c r="J194" s="11"/>
-      <c r="K194" s="11"/>
-    </row>
-    <row r="195" spans="2:11">
-      <c r="I195" s="11"/>
-      <c r="J195" s="11"/>
-      <c r="K195" s="11"/>
-    </row>
-    <row r="196" spans="2:11">
-      <c r="I196" s="11"/>
-      <c r="J196" s="11"/>
-      <c r="K196" s="11"/>
-    </row>
-    <row r="197" spans="2:11">
-      <c r="I197" s="11"/>
-      <c r="J197" s="11"/>
-      <c r="K197" s="11"/>
-    </row>
-    <row r="198" spans="2:11">
-      <c r="I198" s="11"/>
-      <c r="J198" s="11"/>
-      <c r="K198" s="11"/>
-    </row>
-    <row r="199" spans="2:11">
-      <c r="I199" s="11"/>
-      <c r="J199" s="11"/>
-      <c r="K199" s="11"/>
-    </row>
-    <row r="200" spans="2:11">
-      <c r="I200" s="11"/>
-      <c r="J200" s="11"/>
-      <c r="K200" s="11"/>
-    </row>
-    <row r="201" spans="2:11">
-      <c r="I201" s="11"/>
-      <c r="J201" s="11"/>
-      <c r="K201" s="11"/>
-    </row>
-    <row r="202" spans="2:11">
-      <c r="B202" s="23"/>
-      <c r="I202" s="11"/>
-      <c r="J202" s="21"/>
-      <c r="K202" s="11"/>
-    </row>
-    <row r="203" spans="2:11">
-      <c r="I203" s="11"/>
-      <c r="J203" s="11"/>
-      <c r="K203" s="11"/>
+    <row r="65" spans="9:11">
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="9:11">
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="9:11">
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+    </row>
+    <row r="68" spans="9:11">
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="9:11">
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+    </row>
+    <row r="70" spans="9:11">
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+    </row>
+    <row r="71" spans="9:11">
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+    </row>
+    <row r="72" spans="9:11">
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" spans="9:11">
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="9:11">
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+    </row>
+    <row r="75" spans="9:11">
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+    </row>
+    <row r="76" spans="9:11">
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+    </row>
+    <row r="77" spans="9:11">
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+    </row>
+    <row r="78" spans="9:11">
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+    </row>
+    <row r="79" spans="9:11">
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+    </row>
+    <row r="80" spans="9:11">
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+    </row>
+    <row r="81" spans="9:11">
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+    </row>
+    <row r="82" spans="9:11">
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+    </row>
+    <row r="83" spans="9:11">
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+    </row>
+    <row r="84" spans="9:11">
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+    </row>
+    <row r="85" spans="9:11">
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+    </row>
+    <row r="86" spans="9:11">
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+    </row>
+    <row r="87" spans="9:11">
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+    </row>
+    <row r="88" spans="9:11">
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+    </row>
+    <row r="89" spans="9:11">
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+    </row>
+    <row r="90" spans="9:11">
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+    </row>
+    <row r="91" spans="9:11">
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+    </row>
+    <row r="92" spans="9:11">
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+    </row>
+    <row r="93" spans="9:11">
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+    </row>
+    <row r="94" spans="9:11">
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+    </row>
+    <row r="95" spans="9:11">
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+    </row>
+    <row r="96" spans="9:11">
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+    </row>
+    <row r="97" spans="9:11">
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+    </row>
+    <row r="98" spans="9:11">
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+    </row>
+    <row r="99" spans="9:11">
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+    </row>
+    <row r="100" spans="9:11">
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+    </row>
+    <row r="101" spans="9:11">
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+    </row>
+    <row r="102" spans="9:11">
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+    </row>
+    <row r="103" spans="9:11">
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+    </row>
+    <row r="104" spans="9:11">
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+    </row>
+    <row r="105" spans="9:11">
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+    </row>
+    <row r="106" spans="9:11">
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+    </row>
+    <row r="107" spans="9:11">
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+    </row>
+    <row r="108" spans="9:11">
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+    </row>
+    <row r="109" spans="9:11">
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+    </row>
+    <row r="110" spans="9:11">
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+    </row>
+    <row r="111" spans="9:11">
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+    </row>
+    <row r="112" spans="9:11">
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+    </row>
+    <row r="113" spans="9:11">
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+    </row>
+    <row r="114" spans="9:11">
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+    </row>
+    <row r="115" spans="9:11">
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+    </row>
+    <row r="116" spans="9:11">
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+    </row>
+    <row r="117" spans="9:11">
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+    </row>
+    <row r="118" spans="9:11">
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+    </row>
+    <row r="119" spans="9:11">
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+    </row>
+    <row r="120" spans="9:11">
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+    </row>
+    <row r="121" spans="9:11">
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+    </row>
+    <row r="122" spans="9:11">
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+    </row>
+    <row r="123" spans="9:11">
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+    </row>
+    <row r="124" spans="9:11">
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+    </row>
+    <row r="125" spans="9:11">
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+    </row>
+    <row r="126" spans="9:11">
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+    </row>
+    <row r="127" spans="9:11">
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+    </row>
+    <row r="128" spans="9:11">
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+    </row>
+    <row r="129" spans="9:11">
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+    </row>
+    <row r="130" spans="9:11">
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+    </row>
+    <row r="131" spans="9:11">
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+    </row>
+    <row r="132" spans="9:11">
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+    </row>
+    <row r="133" spans="9:11">
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+    </row>
+    <row r="134" spans="9:11">
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+    </row>
+    <row r="135" spans="9:11">
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+    </row>
+    <row r="136" spans="9:11">
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+    </row>
+    <row r="137" spans="9:11">
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+    </row>
+    <row r="138" spans="9:11">
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+    </row>
+    <row r="139" spans="9:11">
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+    </row>
+    <row r="140" spans="9:11">
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+    </row>
+    <row r="141" spans="9:11">
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+    </row>
+    <row r="142" spans="9:11">
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+    </row>
+    <row r="143" spans="9:11">
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+    </row>
+    <row r="144" spans="9:11">
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+    </row>
+    <row r="145" spans="9:11">
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+    </row>
+    <row r="146" spans="9:11">
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+    </row>
+    <row r="147" spans="9:11">
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+    </row>
+    <row r="148" spans="9:11">
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+    </row>
+    <row r="149" spans="9:11">
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+    </row>
+    <row r="150" spans="9:11">
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+    </row>
+    <row r="151" spans="9:11">
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+    </row>
+    <row r="152" spans="9:11">
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+    </row>
+    <row r="153" spans="9:11">
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+    </row>
+    <row r="154" spans="9:11">
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+    </row>
+    <row r="155" spans="9:11">
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+    </row>
+    <row r="156" spans="9:11">
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
+    </row>
+    <row r="157" spans="9:11">
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
+    </row>
+    <row r="158" spans="9:11">
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+    </row>
+    <row r="159" spans="9:11">
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+    </row>
+    <row r="160" spans="9:11">
+      <c r="I160" s="11"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="11"/>
+    </row>
+    <row r="161" spans="9:11">
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+    </row>
+    <row r="162" spans="9:11">
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="11"/>
+    </row>
+    <row r="163" spans="9:11">
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="11"/>
+    </row>
+    <row r="164" spans="9:11">
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="11"/>
+    </row>
+    <row r="165" spans="9:11">
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+    </row>
+    <row r="166" spans="9:11">
+      <c r="I166" s="11"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="11"/>
+    </row>
+    <row r="167" spans="9:11">
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+    </row>
+    <row r="168" spans="9:11">
+      <c r="I168" s="11"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="11"/>
+    </row>
+    <row r="169" spans="9:11">
+      <c r="I169" s="11"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="11"/>
+    </row>
+    <row r="170" spans="9:11">
+      <c r="I170" s="11"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="11"/>
+    </row>
+    <row r="171" spans="9:11">
+      <c r="I171" s="11"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="11"/>
+    </row>
+    <row r="172" spans="9:11">
+      <c r="I172" s="11"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="11"/>
+    </row>
+    <row r="173" spans="9:11">
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+    </row>
+    <row r="174" spans="9:11">
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="11"/>
+    </row>
+    <row r="175" spans="9:11">
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="11"/>
+    </row>
+    <row r="176" spans="9:11">
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+    </row>
+    <row r="177" spans="2:11">
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="11"/>
+    </row>
+    <row r="178" spans="2:11">
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+    </row>
+    <row r="179" spans="2:11">
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+    </row>
+    <row r="180" spans="2:11">
+      <c r="I180" s="11"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="11"/>
+    </row>
+    <row r="181" spans="2:11">
+      <c r="I181" s="11"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="11"/>
+    </row>
+    <row r="182" spans="2:11">
+      <c r="I182" s="11"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="11"/>
+    </row>
+    <row r="183" spans="2:11">
+      <c r="I183" s="11"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="11"/>
+    </row>
+    <row r="184" spans="2:11">
+      <c r="I184" s="11"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="11"/>
+    </row>
+    <row r="185" spans="2:11">
+      <c r="I185" s="11"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="11"/>
+    </row>
+    <row r="186" spans="2:11">
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="11"/>
+    </row>
+    <row r="187" spans="2:11">
+      <c r="I187" s="11"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="11"/>
+    </row>
+    <row r="188" spans="2:11">
+      <c r="I188" s="11"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="11"/>
+    </row>
+    <row r="189" spans="2:11">
+      <c r="I189" s="11"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="11"/>
+    </row>
+    <row r="190" spans="2:11">
+      <c r="B190" s="22"/>
+      <c r="I190" s="11"/>
+      <c r="J190" s="20"/>
+      <c r="K190" s="11"/>
+    </row>
+    <row r="191" spans="2:11">
+      <c r="I191" s="11"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q51" xr:uid="{7F64CA18-9957-49CD-9414-F65E7058C246}"/>
+  <autoFilter ref="A1:Q39" xr:uid="{7F64CA18-9957-49CD-9414-F65E7058C246}"/>
   <phoneticPr fontId="34" type="noConversion"/>
-  <conditionalFormatting sqref="H171:I171">
-    <cfRule type="duplicateValues" dxfId="73" priority="153"/>
+  <conditionalFormatting sqref="H159:I159">
+    <cfRule type="duplicateValues" dxfId="57" priority="163"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H171:I171">
-    <cfRule type="duplicateValues" dxfId="72" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="155"/>
+  <conditionalFormatting sqref="H159:I159">
+    <cfRule type="duplicateValues" dxfId="56" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="165"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="70" priority="116"/>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="duplicateValues" dxfId="54" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="duplicateValues" dxfId="69" priority="117"/>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="duplicateValues" dxfId="53" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="duplicateValues" dxfId="68" priority="86"/>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="duplicateValues" dxfId="52" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="duplicateValues" dxfId="67" priority="87"/>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="duplicateValues" dxfId="51" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="66" priority="76"/>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="duplicateValues" dxfId="50" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="duplicateValues" dxfId="65" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="duplicateValues" dxfId="64" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="duplicateValues" dxfId="63" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="62" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="61" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="duplicateValues" dxfId="60" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="59" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="58" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="duplicateValues" dxfId="57" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
-    <cfRule type="duplicateValues" dxfId="56" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="55" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="54" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="53" priority="19"/>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="duplicateValues" dxfId="49" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="52" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="51" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="50" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="48" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="47" priority="13"/>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="duplicateValues" dxfId="45" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="46" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="12"/>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="duplicateValues" dxfId="44" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="44" priority="29"/>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="duplicateValues" dxfId="43" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="duplicateValues" dxfId="43" priority="10"/>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="duplicateValues" dxfId="42" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="duplicateValues" dxfId="42" priority="9"/>
+  <conditionalFormatting sqref="H30:H31">
+    <cfRule type="duplicateValues" dxfId="41" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="41" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="40" priority="8"/>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="duplicateValues" dxfId="40" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:H35">
-    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="duplicateValues" dxfId="38" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H39">
-    <cfRule type="duplicateValues" dxfId="37" priority="2"/>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="duplicateValues" dxfId="37" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="duplicateValues" dxfId="36" priority="3"/>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="J21:J23">
     <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I171 I20:I22 I2:I3 I5 I37:I38 I8 I10 I12 I14:I15 I17:I18 I25 I27 I29 I31 I33:I34 I40:I41 I44 I46 I48:I49" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" sqref="I159 I12:I14 I33:I34 I2 I4 I6:I7 I9:I10 I17 I19 I25 I27 I29:I30 I36:I37 I22" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20138,17 +20030,17 @@
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.5546875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="100.81640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.1796875" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="3" max="3" width="100.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.21875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.21875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20156,615 +20048,615 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="7" customFormat="1">
       <c r="A37" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="7" customFormat="1">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="7" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="7" customFormat="1">
       <c r="A40" s="3" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="7" customFormat="1">
       <c r="A41" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
